--- a/tbInformation/exampleDb/exampleTb.xlsx
+++ b/tbInformation/exampleDb/exampleTb.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>cnList</t>
   </si>
@@ -21,28 +21,31 @@
     <t>type</t>
   </si>
   <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>foreign key</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>primary key</t>
-  </si>
-  <si>
-    <t>foreign key</t>
-  </si>
-  <si>
-    <t>学号</t>
-  </si>
-  <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>姓名</t>
@@ -154,12 +157,12 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -174,15 +177,15 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -194,7 +197,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -212,7 +215,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -220,26 +223,26 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
